--- a/biology/Zoologie/Conus_maya/Conus_maya.xlsx
+++ b/biology/Zoologie/Conus_maya/Conus_maya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus maya est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille varie entre 28 mm et 32 mm.
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente dans la mer des Caraïbes au large du Yucatán.
 </t>
@@ -576,10 +592,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Publication originale
-L'espèce Conus maya a été décrite pour la première fois en 2011 par les malacologistes américains Edward James Petuch (d)[1] et Dennis M. Sargent (d)[2] dans « Visaya »[3],[4].
-Synonymes
-Conus (Dauciconus) maya (Petuch &amp; Sargent, 2011) · appellation alternative
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus maya a été décrite pour la première fois en 2011 par les malacologistes américains Edward James Petuch (d) et Dennis M. Sargent (d) dans « Visaya »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_maya</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_maya</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Conus (Dauciconus) maya (Petuch &amp; Sargent, 2011) · appellation alternative
 Dauciconus maya (Petuch &amp; Sargent, 2011) · non accepté
 Gradiconus maya Petuch &amp; Sargent, 2011 · non accepté (combinaison originale)</t>
         </is>
